--- a/trend_results/Rivers/MangaoreatdsShannonSTP_d0190746dc.xlsx
+++ b/trend_results/Rivers/MangaoreatdsShannonSTP_d0190746dc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.0818277656443626</v>
+        <v>0.918172234355637</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.999428951666395</v>
+        <v>0.0005710483336049</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.489199351885738</v>
+        <v>0.510800648114262</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.80769256250479</v>
+        <v>0.19230743749521</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2903,6 +2903,1094 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.084523829371146</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0152671755725191</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.580152671755725</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0.0195181688635554</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.042247111774179</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0022734297163199</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-2.16868542928393</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.950055393725609</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.831395348837209</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>10.725</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0271987066431511</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0486009772268941</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.253600994341736</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Extremely likely increasing</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9223537048459109</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.427745664739884</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.15028901734104</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.141605729411793</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.6705202312138731</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>105</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.67239010989011</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.773302112718547</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4.53386118950416</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.59275248560963</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.968946876905508</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.792682926829268</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.268292682926829</v>
+      </c>
+      <c r="I32" t="n">
+        <v>11</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.209846309668515</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.437086092715232</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0860927152317881</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.301700334891758</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.038961038961039</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.798701298701299</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.09475</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0005997536945812</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0022448088881508</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0029970719582943</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.632985429637235</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.952631596584434</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.579881656804734</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0174760765550238</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.030444540135223</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.233014354066984</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Extremely likely increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.310238883525814</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.706896551724138</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0006479196596683</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0019954518126117</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0026897947559299</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.647919659668341</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.168185991954435</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.479768786127168</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0020484523503724</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0014106406840836</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0057432471853667</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.975453500177363</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.810998715704907</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.329479768786127</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.0001628072211575</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.000474314374412</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0001304381943412</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.8568801113553181</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.910542500588955</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.918604651162791</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.0907873533471359</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.205972931340954</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0221892693853884</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-1.85280312953339</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/MangaoreatdsShannonSTP_d0190746dc.xlsx
+++ b/trend_results/Rivers/MangaoreatdsShannonSTP_d0190746dc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.108015131045081</v>
+        <v>0.0016024969794979</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.707317073170732</v>
+        <v>0.757575757575758</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.07966658341658341</v>
+        <v>-0.237099996759139</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.19177466323361</v>
+        <v>-0.381840778482406</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0151579770098714</v>
+        <v>-0.08236978236431269</v>
       </c>
       <c r="N2" t="n">
-        <v>-10.6222111222111</v>
+        <v>-36.4769225783291</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.918172234355637</v>
+        <v>0.591519339142304</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.910714285714286</v>
+        <v>0.946428571428571</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.935</v>
+        <v>10.875</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0614519389618294</v>
+        <v>0.0148621838067593</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0065424136893838</v>
+        <v>-0.133966284758683</v>
       </c>
       <c r="M3" t="n">
-        <v>0.119503873459275</v>
+        <v>0.0909381610576397</v>
       </c>
       <c r="N3" t="n">
-        <v>0.561974750451115</v>
+        <v>0.136663759142614</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0310875793394339</v>
+        <v>0.0707518889920349</v>
       </c>
       <c r="G4" t="n">
         <v>0.509090909090909</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0004748079659771</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.385728975888939</v>
+        <v>0.233855266606537</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8545454545454541</v>
+        <v>0.8</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="K5" t="n">
-        <v>4.34821428571429</v>
+        <v>7.95944309927361</v>
       </c>
       <c r="L5" t="n">
-        <v>-18.6524593873878</v>
+        <v>-12.0535646707299</v>
       </c>
       <c r="M5" t="n">
-        <v>35.7541837939401</v>
+        <v>34.4456614352838</v>
       </c>
       <c r="N5" t="n">
-        <v>3.34478021978022</v>
+        <v>7.65331067237847</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.268910547768914</v>
+        <v>0.06784548688382171</v>
       </c>
       <c r="G6" t="n">
-        <v>0.86</v>
+        <v>0.865384615384615</v>
       </c>
       <c r="H6" t="n">
-        <v>0.24</v>
+        <v>0.173076923076923</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
         <v>0.005</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.0132657737362467</v>
+        <v>0.289892889987867</v>
       </c>
       <c r="G7" t="n">
-        <v>0.490909090909091</v>
+        <v>0.527272727272727</v>
       </c>
       <c r="H7" t="n">
         <v>0.127272727272727</v>
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0004141156462585</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.005082752266757</v>
+        <v>0.0295255912373145</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.927272727272727</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.092</v>
+        <v>0.105</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0219481292517007</v>
+        <v>0.0163582925122463</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0071936824753307</v>
+        <v>0.0019750540778067</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0433393810194867</v>
+        <v>0.0373950539816821</v>
       </c>
       <c r="N8" t="n">
-        <v>23.8566622301094</v>
+        <v>15.5793262021394</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.0005710483336049</v>
+        <v>0.144473777946439</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8545454545454541</v>
+        <v>0.781818181818182</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.54</v>
+        <v>7.43</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.116672582076309</v>
+        <v>-0.029646915584416</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.174604175952283</v>
+        <v>-0.081697170882326</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0657334259899304</v>
+        <v>0.0117070745511764</v>
       </c>
       <c r="N9" t="n">
-        <v>-1.54738172514998</v>
+        <v>-0.399016360490121</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.0052451238417991</v>
+        <v>0.0368666324298104</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.839285714285714</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.098</v>
+        <v>0.109</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0221140487536657</v>
+        <v>0.0156479848577547</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0064396475977423</v>
+        <v>0.0011767777590992</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0443380071131411</v>
+        <v>0.0385478454150208</v>
       </c>
       <c r="N10" t="n">
-        <v>22.5653558710874</v>
+        <v>14.3559494107841</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.07996135883201561</v>
+        <v>0.0814622216353081</v>
       </c>
       <c r="G11" t="n">
-        <v>0.109090909090909</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.418181818181818</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>0.24</v>
       </c>
       <c r="K11" t="n">
-        <v>0.790014419610671</v>
+        <v>0.0210397465437788</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>-0.0024045424621461</v>
       </c>
       <c r="M11" t="n">
-        <v>2.12937703448727</v>
+        <v>0.0495829511380417</v>
       </c>
       <c r="N11" t="n">
-        <v>13.1669069935112</v>
+        <v>8.766561059907829</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.0279684438731132</v>
+        <v>0.0633804854022961</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.672727272727273</v>
+        <v>0.527272727272727</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.23</v>
+        <v>0.017</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0295350404312668</v>
+        <v>0.0013209764918625</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0032877677339532</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0541525936983035</v>
+        <v>0.0029181831473392</v>
       </c>
       <c r="N12" t="n">
-        <v>12.8413219266378</v>
+        <v>7.77044995213275</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.0143156304653636</v>
+        <v>0.142945165041126</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.581818181818182</v>
+        <v>0.981818181818182</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.017</v>
+        <v>4.57</v>
       </c>
       <c r="K13" t="n">
-        <v>0.002040502793296</v>
+        <v>0.381794425087108</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0004670711230564</v>
+        <v>-0.233237901313134</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0038897744610741</v>
+        <v>1.07470088410899</v>
       </c>
       <c r="N13" t="n">
-        <v>12.0029576076241</v>
+        <v>8.35436378746407</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.0956543848238179</v>
+        <v>0.0298610983193101</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0.682926829268293</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>5.14</v>
+        <v>0.75</v>
       </c>
       <c r="K14" t="n">
-        <v>0.598001605136437</v>
+        <v>-0.0463809523809523</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.116577981952014</v>
+        <v>-0.0874700045432362</v>
       </c>
       <c r="M14" t="n">
-        <v>1.40177056520033</v>
+        <v>-0.0054756889180103</v>
       </c>
       <c r="N14" t="n">
-        <v>11.6342724734715</v>
+        <v>-6.18412698412698</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.020753239335549</v>
+        <v>0.705997388168191</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.662921348314607</v>
+        <v>0.870689655172414</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.93</v>
+        <v>10.875</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0524125607380948</v>
+        <v>0.0092738635372132</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0938029813266588</v>
+        <v>-0.0197581048695843</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0112187012914236</v>
+        <v>0.0376432010157337</v>
       </c>
       <c r="N15" t="n">
-        <v>-5.63575921914997</v>
+        <v>0.08527690608931709</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,43 +1828,43 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.916603165541752</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.452173913043478</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.156521739130435</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.510800648114262</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.870689655172414</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>10.92</v>
+        <v>0.005</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0245090472485456</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0376491663271368</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,46 +1919,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.967919970260568</v>
+        <v>0.809611530762592</v>
       </c>
       <c r="G17" t="n">
-        <v>0.426086956521739</v>
+        <v>0.008695652173913</v>
       </c>
       <c r="H17" t="n">
-        <v>0.182608695652174</v>
+        <v>0.71304347826087</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.005</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-3.98817106460419</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0001096367988729</v>
+        <v>-9.657137342064679</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>2.70755004068007</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>-3.32347588717015</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,43 +2010,43 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.478140835949788</v>
+        <v>0.492436548012007</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.871559633027523</v>
       </c>
       <c r="H18" t="n">
-        <v>0.704347826086957</v>
+        <v>0.211009174311927</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-4.63323442808094</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>7.3950792110119</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2116,19 +2116,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.683971871814821</v>
+        <v>0.983029387914001</v>
       </c>
       <c r="G19" t="n">
-        <v>0.87037037037037</v>
+        <v>0.417391304347826</v>
       </c>
       <c r="H19" t="n">
-        <v>0.212962962962963</v>
+        <v>0.0956521739130435</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,14 +2192,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.979358074567147</v>
+        <v>0.0054142623077865</v>
       </c>
       <c r="G20" t="n">
-        <v>0.339130434782609</v>
+        <v>0.0347826086956522</v>
       </c>
       <c r="H20" t="n">
-        <v>0.104347826086957</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.003</v>
+        <v>0.092</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.0048979885057471</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0001620452528837</v>
+        <v>0.0015340520101116</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.008488828409424901</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>5.32390054972514</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2294,35 +2294,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0006734840485882</v>
+        <v>0.024697934581698</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0521739130434783</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.834782608695652</v>
+        <v>0.614035087719298</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0851</v>
+        <v>7.525</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00556682211101</v>
+        <v>-0.0271614481409003</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0028580939809249</v>
+        <v>-0.0477136134115838</v>
       </c>
       <c r="M21" t="n">
-        <v>0.008886178019116999</v>
+        <v>-0.0046197866265059</v>
       </c>
       <c r="N21" t="n">
-        <v>6.54150659343127</v>
+        <v>-0.360949476955485</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Mana_13d</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,7 +2370,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.19230743749521</v>
+        <v>0.0254894864604498</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.628318584070796</v>
+        <v>0.724137931034483</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>7.53</v>
+        <v>0.0975</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0099795081967213</v>
+        <v>0.0045567824775798</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0322329891142151</v>
+        <v>0.0004643748726814</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0100126772030241</v>
+        <v>0.008040686864852299</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.132529989332289</v>
+        <v>4.67362305392809</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Mana_13d</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,14 +2461,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0063194786216043</v>
+        <v>0.352961578324888</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.706896551724138</v>
+        <v>0.539130434782609</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0925</v>
+        <v>0.21</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0053346048855603</v>
+        <v>0.0007390732496964</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0018453422674369</v>
+        <v>-0.0048782667550149</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0088182328302741</v>
+        <v>0.009199448043644601</v>
       </c>
       <c r="N23" t="n">
-        <v>5.76714041682195</v>
+        <v>0.351939642712609</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.110851355224019</v>
+        <v>0.931619321087676</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0608695652173913</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.295652173913043</v>
+        <v>0.4</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>6</v>
+        <v>0.018</v>
       </c>
       <c r="K24" t="n">
-        <v>0.186352040816327</v>
+        <v>-0.0004985213830755</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>-0.0010381668280439</v>
       </c>
       <c r="M24" t="n">
-        <v>0.521785714285714</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>3.10586734693878</v>
+        <v>-2.76956323930846</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.194608842103268</v>
+        <v>0.154424356778323</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.608695652173913</v>
+        <v>0.9217391304347829</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.21</v>
+        <v>4.54</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0035692182410423</v>
+        <v>0.118140161725067</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0027667662348462</v>
+        <v>-0.0755352164934506</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0108705357142857</v>
+        <v>0.330901720725514</v>
       </c>
       <c r="N25" t="n">
-        <v>1.69962773382969</v>
+        <v>2.60220620539796</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,46 +2734,46 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.651553839657752</v>
+        <v>0.0021902702436259</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.426086956521739</v>
+        <v>0.609756097560976</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.018</v>
+        <v>0.93</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>-0.0431552094522019</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0007501602543771</v>
+        <v>-0.071126128468932</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0004735395016013</v>
+        <v>-0.0174098587475043</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>-4.6403451023873</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,14 +2825,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.0471935021386838</v>
+        <v>0.9915635066612249</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9304347826086961</v>
+        <v>0.820809248554913</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>4.52</v>
+        <v>10.71</v>
       </c>
       <c r="K27" t="n">
-        <v>0.194912993039443</v>
+        <v>0.034952153110048</v>
       </c>
       <c r="L27" t="n">
-        <v>0.002872111315586</v>
+        <v>0.0100220994239215</v>
       </c>
       <c r="M27" t="n">
-        <v>0.41160257688293</v>
+        <v>0.0548506976207919</v>
       </c>
       <c r="N27" t="n">
-        <v>4.31223435927972</v>
+        <v>0.32635063594816</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2927,35 +2927,35 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.084523829371146</v>
+        <v>0.99454376908049</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0152671755725191</v>
+        <v>0.416184971098266</v>
       </c>
       <c r="H28" t="n">
-        <v>0.580152671755725</v>
+        <v>0.144508670520231</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9</v>
+        <v>0.005</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0195181688635554</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.042247111774179</v>
+        <v>-9.9663862252726e-05</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0022734297163199</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-2.16868542928393</v>
+        <v>0</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.950055393725609</v>
+        <v>0.104898176240961</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0057803468208092</v>
       </c>
       <c r="H29" t="n">
-        <v>0.831395348837209</v>
+        <v>0.682080924855491</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>10.725</v>
+        <v>105</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0271987066431511</v>
+        <v>2.24692412850308</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>-0.574367096345432</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0486009772268941</v>
+        <v>4.58024177051925</v>
       </c>
       <c r="N29" t="n">
-        <v>0.253600994341736</v>
+        <v>2.1399277414315</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3113,16 +3113,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.9223537048459109</v>
+        <v>0.993921709741139</v>
       </c>
       <c r="G30" t="n">
-        <v>0.427745664739884</v>
+        <v>0.786585365853659</v>
       </c>
       <c r="H30" t="n">
-        <v>0.15028901734104</v>
+        <v>0.274390243902439</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J30" t="n">
         <v>0.005</v>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.141605729411793</v>
+        <v>0.560999894397442</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.460122699386503</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6705202312138731</v>
+        <v>0.0797546012269939</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>105</v>
+        <v>0.0025</v>
       </c>
       <c r="K31" t="n">
-        <v>1.67239010989011</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.773302112718547</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>4.53386118950416</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.59275248560963</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.968946876905508</v>
+        <v>0.346249090919989</v>
       </c>
       <c r="G32" t="n">
-        <v>0.792682926829268</v>
+        <v>0.0368098159509202</v>
       </c>
       <c r="H32" t="n">
-        <v>0.268292682926829</v>
+        <v>0.803680981595092</v>
       </c>
       <c r="I32" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005</v>
+        <v>0.095</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.0004282790895383</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-0.0021580283792497</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.0027924802916859</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>0.450820094250898</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.209846309668515</v>
+        <v>0.651880591594732</v>
       </c>
       <c r="G33" t="n">
-        <v>0.437086092715232</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0860927152317881</v>
+        <v>0.556213017751479</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0025</v>
+        <v>7.5</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.0044501979896436</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-0.007983953166649099</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.0182756473479427</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>0.0593359731952483</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Mana_13d</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3473,35 +3469,35 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.301700334891758</v>
+        <v>0.54182668380247</v>
       </c>
       <c r="G34" t="n">
-        <v>0.038961038961039</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.798701298701299</v>
+        <v>0.718390804597701</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.09475</v>
+        <v>0.1045</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0005997536945812</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0022448088881508</v>
+        <v>-0.0028462652185272</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0029970719582943</v>
+        <v>0.002005401510433</v>
       </c>
       <c r="N34" t="n">
-        <v>0.632985429637235</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,46 +3549,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.952631596584434</v>
+        <v>0.5015718074071021</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.579881656804734</v>
+        <v>0.485549132947977</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.5</v>
+        <v>0.217</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0174760765550238</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-0.0039012898336488</v>
       </c>
       <c r="M35" t="n">
-        <v>0.030444540135223</v>
+        <v>0.0038311807763441</v>
       </c>
       <c r="N35" t="n">
-        <v>0.233014354066984</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Mana_13d</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,14 +3640,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.310238883525814</v>
+        <v>0.98345356381323</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.706896551724138</v>
+        <v>0.323699421965318</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0006479196596683</v>
+        <v>-0.0004155338505265</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0019954518126117</v>
+        <v>-0.0007209466497632</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0026897947559299</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0.647919659668341</v>
+        <v>-2.07766925263256</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.168185991954435</v>
+        <v>0.876278892599666</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.479768786127168</v>
+        <v>0.907514450867052</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.21</v>
+        <v>4.75</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0020484523503724</v>
+        <v>-0.0779413969115461</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0014106406840836</v>
+        <v>-0.187227899922332</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0057432471853667</v>
+        <v>0.0318032680436992</v>
       </c>
       <c r="N37" t="n">
-        <v>0.975453500177363</v>
+        <v>-1.64087151392729</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3809,188 +3809,6 @@
         </is>
       </c>
       <c r="W37" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Mangaore at d/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.810998715704907</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.329479768786127</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-0.0001628072211575</v>
-      </c>
-      <c r="L38" t="n">
-        <v>-0.000474314374412</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.0001304381943412</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-0.8568801113553181</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>1803109.05</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5509886.23</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Mangaore at d/s Shannon STP</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>15</v>
-      </c>
-      <c r="D39" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.910542500588955</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.918604651162791</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-0.0907873533471359</v>
-      </c>
-      <c r="L39" t="n">
-        <v>-0.205972931340954</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.0221892693853884</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-1.85280312953339</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Very likely improving</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>1803109.05</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5509886.23</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Mana_13d</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/MangaoreatdsShannonSTP_d0190746dc.xlsx
+++ b/trend_results/Rivers/MangaoreatdsShannonSTP_d0190746dc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="62">
   <si>
     <t>site name</t>
   </si>
@@ -139,46 +139,40 @@
     <t>Impact</t>
   </si>
   <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
     <t>Exceptionally unlikely improving</t>
   </si>
   <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
     <t>Virtually certain increasing</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
   </si>
   <si>
     <t>Horowhenua District</t>
@@ -657,31 +651,31 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.0016024969794979</v>
+        <v>0.143445191042936</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.757575757575758</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.65</v>
+        <v>0.39</v>
       </c>
       <c r="K2">
-        <v>-0.237099996759139</v>
+        <v>-0.0609879406307978</v>
       </c>
       <c r="L2">
-        <v>-0.381840778482406</v>
+        <v>-0.239976367139841</v>
       </c>
       <c r="M2">
-        <v>-0.08236978236431269</v>
+        <v>0.0379704894224007</v>
       </c>
       <c r="N2">
-        <v>-36.4769225783291</v>
+        <v>-15.6379334950764</v>
       </c>
       <c r="O2" t="s">
         <v>40</v>
@@ -696,19 +690,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" t="s">
         <v>57</v>
-      </c>
-      <c r="V2" t="s">
-        <v>58</v>
-      </c>
-      <c r="W2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -728,13 +722,13 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.591519339142304</v>
+        <v>0.232696194062133</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.946428571428571</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -743,16 +737,16 @@
         <v>10.875</v>
       </c>
       <c r="K3">
-        <v>0.0148621838067593</v>
+        <v>-0.0451545329670329</v>
       </c>
       <c r="L3">
-        <v>-0.133966284758683</v>
+        <v>-0.137748664843617</v>
       </c>
       <c r="M3">
-        <v>0.0909381610576397</v>
+        <v>0.0211432513236772</v>
       </c>
       <c r="N3">
-        <v>0.136663759142614</v>
+        <v>-0.415214096248578</v>
       </c>
       <c r="O3" t="s">
         <v>40</v>
@@ -767,19 +761,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" t="s">
         <v>58</v>
-      </c>
-      <c r="W3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -799,10 +793,10 @@
         <v>37</v>
       </c>
       <c r="F4">
-        <v>0.0707518889920349</v>
+        <v>0.380021717899565</v>
       </c>
       <c r="G4">
-        <v>0.509090909090909</v>
+        <v>0.581818181818182</v>
       </c>
       <c r="H4">
         <v>0.181818181818182</v>
@@ -838,19 +832,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -870,31 +864,31 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>0.233855266606537</v>
+        <v>0.711949073034589</v>
       </c>
       <c r="G5">
         <v>0.0181818181818182</v>
       </c>
       <c r="H5">
-        <v>0.8</v>
+        <v>0.8545454545454541</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K5">
-        <v>7.95944309927361</v>
+        <v>-4.92797619047619</v>
       </c>
       <c r="L5">
-        <v>-12.0535646707299</v>
+        <v>-25.1007749384612</v>
       </c>
       <c r="M5">
-        <v>34.4456614352838</v>
+        <v>9.42253382617921</v>
       </c>
       <c r="N5">
-        <v>7.65331067237847</v>
+        <v>-5.02854713313897</v>
       </c>
       <c r="O5" t="s">
         <v>40</v>
@@ -909,19 +903,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -941,16 +935,16 @@
         <v>38</v>
       </c>
       <c r="F6">
-        <v>0.06784548688382171</v>
+        <v>0.165567318992874</v>
       </c>
       <c r="G6">
-        <v>0.865384615384615</v>
+        <v>0.87037037037037</v>
       </c>
       <c r="H6">
-        <v>0.173076923076923</v>
+        <v>0.148148148148148</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0.005</v>
@@ -971,7 +965,7 @@
         <v>40</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q6">
         <v>1803109.05</v>
@@ -980,19 +974,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1012,10 +1006,10 @@
         <v>37</v>
       </c>
       <c r="F7">
-        <v>0.289892889987867</v>
+        <v>0.9508083389737499</v>
       </c>
       <c r="G7">
-        <v>0.527272727272727</v>
+        <v>0.563636363636364</v>
       </c>
       <c r="H7">
         <v>0.127272727272727</v>
@@ -1042,7 +1036,7 @@
         <v>40</v>
       </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q7">
         <v>1803109.05</v>
@@ -1051,19 +1045,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1083,37 +1077,37 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.0295255912373145</v>
+        <v>0.93071034202912</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.9090909090909089</v>
+        <v>0.927272727272727</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.105</v>
+        <v>0.107</v>
       </c>
       <c r="K8">
-        <v>0.0163582925122463</v>
+        <v>-0.0104357142857143</v>
       </c>
       <c r="L8">
-        <v>0.0019750540778067</v>
+        <v>-0.0260892857142857</v>
       </c>
       <c r="M8">
-        <v>0.0373950539816821</v>
+        <v>0.0011173052037539</v>
       </c>
       <c r="N8">
-        <v>15.5793262021394</v>
+        <v>-9.753004005340451</v>
       </c>
       <c r="O8" t="s">
         <v>40</v>
       </c>
       <c r="P8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8">
         <v>1803109.05</v>
@@ -1122,19 +1116,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1154,37 +1148,37 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.144473777946439</v>
+        <v>0.380509816313383</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.781818181818182</v>
+        <v>0.696428571428571</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.43</v>
+        <v>7.485</v>
       </c>
       <c r="K9">
-        <v>-0.029646915584416</v>
+        <v>-0.005507931865928</v>
       </c>
       <c r="L9">
-        <v>-0.081697170882326</v>
+        <v>-0.0496938775510196</v>
       </c>
       <c r="M9">
-        <v>0.0117070745511764</v>
+        <v>0.0384744814529147</v>
       </c>
       <c r="N9">
-        <v>-0.399016360490121</v>
+        <v>-0.0735862640738553</v>
       </c>
       <c r="O9" t="s">
         <v>40</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q9">
         <v>1803109.05</v>
@@ -1193,16 +1187,16 @@
         <v>5509886.23</v>
       </c>
       <c r="S9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1222,7 +1216,7 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.0368666324298104</v>
+        <v>0.787771066722001</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1234,25 +1228,25 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.109</v>
+        <v>0.1185</v>
       </c>
       <c r="K10">
-        <v>0.0156479848577547</v>
+        <v>-0.005863501082251</v>
       </c>
       <c r="L10">
-        <v>0.0011767777590992</v>
+        <v>-0.0202565417610103</v>
       </c>
       <c r="M10">
-        <v>0.0385478454150208</v>
+        <v>0.0062279172541819</v>
       </c>
       <c r="N10">
-        <v>14.3559494107841</v>
+        <v>-4.94810217911483</v>
       </c>
       <c r="O10" t="s">
         <v>40</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q10">
         <v>1803109.05</v>
@@ -1261,19 +1255,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V10" t="s">
+        <v>56</v>
+      </c>
+      <c r="W10" t="s">
         <v>58</v>
-      </c>
-      <c r="W10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1293,37 +1287,37 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.0814622216353081</v>
+        <v>0.833072094549725</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.636363636363636</v>
+        <v>0.654545454545455</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="K11">
-        <v>0.0210397465437788</v>
+        <v>-0.0108705357142857</v>
       </c>
       <c r="L11">
-        <v>-0.0024045424621461</v>
+        <v>-0.0324862175052663</v>
       </c>
       <c r="M11">
-        <v>0.0495829511380417</v>
+        <v>0.009317602040816299</v>
       </c>
       <c r="N11">
-        <v>8.766561059907829</v>
+        <v>-4.7263198757764</v>
       </c>
       <c r="O11" t="s">
         <v>40</v>
       </c>
       <c r="P11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q11">
         <v>1803109.05</v>
@@ -1332,19 +1326,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V11" t="s">
+        <v>56</v>
+      </c>
+      <c r="W11" t="s">
         <v>58</v>
-      </c>
-      <c r="W11" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1364,37 +1358,37 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.0633804854022961</v>
+        <v>0.974406688020912</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.527272727272727</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="K12">
-        <v>0.0013209764918625</v>
+        <v>-0.0012883597883597</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>-0.0030998939904879</v>
       </c>
       <c r="M12">
-        <v>0.0029181831473392</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>7.77044995213275</v>
+        <v>-8.052248677248681</v>
       </c>
       <c r="O12" t="s">
         <v>40</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q12">
         <v>1803109.05</v>
@@ -1403,19 +1397,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W12" t="s">
         <v>58</v>
-      </c>
-      <c r="W12" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1435,7 +1429,7 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.142945165041126</v>
+        <v>0.9915402322183</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1447,25 +1441,25 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.57</v>
+        <v>4.36</v>
       </c>
       <c r="K13">
-        <v>0.381794425087108</v>
+        <v>-0.751587712805329</v>
       </c>
       <c r="L13">
-        <v>-0.233237901313134</v>
+        <v>-1.33145889789887</v>
       </c>
       <c r="M13">
-        <v>1.07470088410899</v>
+        <v>-0.285477651697025</v>
       </c>
       <c r="N13">
-        <v>8.35436378746407</v>
+        <v>-17.2382502937002</v>
       </c>
       <c r="O13" t="s">
         <v>40</v>
       </c>
       <c r="P13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q13">
         <v>1803109.05</v>
@@ -1474,19 +1468,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1506,37 +1500,37 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.0298610983193101</v>
+        <v>0.031305228551882</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.682926829268293</v>
+        <v>0.7125</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.75</v>
+        <v>0.665</v>
       </c>
       <c r="K14">
-        <v>-0.0463809523809523</v>
+        <v>-0.0387160821535822</v>
       </c>
       <c r="L14">
-        <v>-0.0874700045432362</v>
+        <v>-0.0758484572458633</v>
       </c>
       <c r="M14">
-        <v>-0.0054756889180103</v>
+        <v>-0.0045020309277051</v>
       </c>
       <c r="N14">
-        <v>-6.18412698412698</v>
+        <v>-5.82196724114017</v>
       </c>
       <c r="O14" t="s">
         <v>40</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q14">
         <v>1803109.05</v>
@@ -1545,19 +1539,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U14" t="s">
+        <v>55</v>
+      </c>
+      <c r="V14" t="s">
+        <v>56</v>
+      </c>
+      <c r="W14" t="s">
         <v>57</v>
-      </c>
-      <c r="V14" t="s">
-        <v>58</v>
-      </c>
-      <c r="W14" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1577,31 +1571,31 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.705997388168191</v>
+        <v>0.477873503919756</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.870689655172414</v>
+        <v>0.859649122807018</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.875</v>
+        <v>10.905</v>
       </c>
       <c r="K15">
-        <v>0.0092738635372132</v>
+        <v>-0.0012482911825019</v>
       </c>
       <c r="L15">
-        <v>-0.0197581048695843</v>
+        <v>-0.0237834710805822</v>
       </c>
       <c r="M15">
-        <v>0.0376432010157337</v>
+        <v>0.0246710472363123</v>
       </c>
       <c r="N15">
-        <v>0.08527690608931709</v>
+        <v>-0.011446961783603</v>
       </c>
       <c r="O15" t="s">
         <v>40</v>
@@ -1616,19 +1610,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W15" t="s">
         <v>58</v>
-      </c>
-      <c r="W15" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1648,19 +1642,19 @@
         <v>37</v>
       </c>
       <c r="F16">
-        <v>0.916603165541752</v>
+        <v>0.871003193431194</v>
       </c>
       <c r="G16">
-        <v>0.452173913043478</v>
+        <v>0.5043478260869561</v>
       </c>
       <c r="H16">
-        <v>0.156521739130435</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.005</v>
+        <v>0.0025</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1678,7 +1672,7 @@
         <v>40</v>
       </c>
       <c r="P16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q16">
         <v>1803109.05</v>
@@ -1687,19 +1681,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1719,7 +1713,7 @@
         <v>36</v>
       </c>
       <c r="F17">
-        <v>0.809611530762592</v>
+        <v>0.918852046881514</v>
       </c>
       <c r="G17">
         <v>0.008695652173913</v>
@@ -1734,22 +1728,22 @@
         <v>120</v>
       </c>
       <c r="K17">
-        <v>-3.98817106460419</v>
+        <v>-4.60104974897307</v>
       </c>
       <c r="L17">
-        <v>-9.657137342064679</v>
+        <v>-11.5394917582418</v>
       </c>
       <c r="M17">
-        <v>2.70755004068007</v>
+        <v>0.564861034660741</v>
       </c>
       <c r="N17">
-        <v>-3.32347588717015</v>
+        <v>-3.83420812414423</v>
       </c>
       <c r="O17" t="s">
         <v>40</v>
       </c>
       <c r="P17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q17">
         <v>1803109.05</v>
@@ -1758,19 +1752,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1787,16 +1781,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18">
-        <v>0.492436548012007</v>
+        <v>0.121983826312692</v>
       </c>
       <c r="G18">
-        <v>0.871559633027523</v>
+        <v>0.8990825688073391</v>
       </c>
       <c r="H18">
-        <v>0.211009174311927</v>
+        <v>0.192660550458716</v>
       </c>
       <c r="I18">
         <v>10</v>
@@ -1820,7 +1814,7 @@
         <v>40</v>
       </c>
       <c r="P18" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="Q18">
         <v>1803109.05</v>
@@ -1829,19 +1823,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1861,19 +1855,19 @@
         <v>37</v>
       </c>
       <c r="F19">
-        <v>0.983029387914001</v>
+        <v>0.998709973498052</v>
       </c>
       <c r="G19">
-        <v>0.417391304347826</v>
+        <v>0.5043478260869561</v>
       </c>
       <c r="H19">
-        <v>0.0956521739130435</v>
+        <v>0.0782608695652174</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1891,7 +1885,7 @@
         <v>40</v>
       </c>
       <c r="P19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q19">
         <v>1803109.05</v>
@@ -1900,19 +1894,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1929,34 +1923,34 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20">
-        <v>0.0054142623077865</v>
+        <v>0.168780860585275</v>
       </c>
       <c r="G20">
-        <v>0.0347826086956522</v>
+        <v>0.008695652173913</v>
       </c>
       <c r="H20">
-        <v>0.826086956521739</v>
+        <v>0.817391304347826</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.092</v>
+        <v>0.089</v>
       </c>
       <c r="K20">
-        <v>0.0048979885057471</v>
+        <v>0.001497949419002</v>
       </c>
       <c r="L20">
-        <v>0.0015340520101116</v>
+        <v>-0.0014655593018467</v>
       </c>
       <c r="M20">
-        <v>0.008488828409424901</v>
+        <v>0.004742403751154</v>
       </c>
       <c r="N20">
-        <v>5.32390054972514</v>
+        <v>1.68308923483376</v>
       </c>
       <c r="O20" t="s">
         <v>40</v>
@@ -1971,19 +1965,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2003,37 +1997,37 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.024697934581698</v>
+        <v>0.011536234563357</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.614035087719298</v>
+        <v>0.6052631578947369</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.525</v>
+        <v>7.535</v>
       </c>
       <c r="K21">
-        <v>-0.0271614481409003</v>
+        <v>-0.0266727521679599</v>
       </c>
       <c r="L21">
-        <v>-0.0477136134115838</v>
+        <v>-0.0488648661973602</v>
       </c>
       <c r="M21">
-        <v>-0.0046197866265059</v>
+        <v>-0.0093293483538388</v>
       </c>
       <c r="N21">
-        <v>-0.360949476955485</v>
+        <v>-0.35398476666171</v>
       </c>
       <c r="O21" t="s">
         <v>40</v>
       </c>
       <c r="P21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q21">
         <v>1803109.05</v>
@@ -2042,16 +2036,16 @@
         <v>5509886.23</v>
       </c>
       <c r="S21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2071,37 +2065,37 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.0254894864604498</v>
+        <v>0.145133520992209</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.724137931034483</v>
+        <v>0.698275862068966</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0975</v>
+        <v>0.095</v>
       </c>
       <c r="K22">
-        <v>0.0045567824775798</v>
+        <v>0.0016445325168012</v>
       </c>
       <c r="L22">
-        <v>0.0004643748726814</v>
+        <v>-0.0012232880348957</v>
       </c>
       <c r="M22">
-        <v>0.008040686864852299</v>
+        <v>0.0050232668618326</v>
       </c>
       <c r="N22">
-        <v>4.67362305392809</v>
+        <v>1.73108685979084</v>
       </c>
       <c r="O22" t="s">
         <v>40</v>
       </c>
       <c r="P22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Q22">
         <v>1803109.05</v>
@@ -2110,19 +2104,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V22" t="s">
+        <v>56</v>
+      </c>
+      <c r="W22" t="s">
         <v>58</v>
-      </c>
-      <c r="W22" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2139,16 +2133,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F23">
-        <v>0.352961578324888</v>
+        <v>0.578633310452743</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.539130434782609</v>
+        <v>0.443478260869565</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2157,22 +2151,22 @@
         <v>0.21</v>
       </c>
       <c r="K23">
-        <v>0.0007390732496964</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>-0.0048782667550149</v>
+        <v>-0.0064484491579617</v>
       </c>
       <c r="M23">
-        <v>0.009199448043644601</v>
+        <v>0.0055701915313989</v>
       </c>
       <c r="N23">
-        <v>0.351939642712609</v>
+        <v>0</v>
       </c>
       <c r="O23" t="s">
         <v>40</v>
       </c>
       <c r="P23" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Q23">
         <v>1803109.05</v>
@@ -2181,19 +2175,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V23" t="s">
+        <v>56</v>
+      </c>
+      <c r="W23" t="s">
         <v>58</v>
-      </c>
-      <c r="W23" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2213,37 +2207,37 @@
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.931619321087676</v>
+        <v>0.97667839373237</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.4</v>
+        <v>0.365217391304348</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="K24">
-        <v>-0.0004985213830755</v>
+        <v>-0.0005610599078341</v>
       </c>
       <c r="L24">
-        <v>-0.0010381668280439</v>
+        <v>-0.0010060842297428</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>-2.76956323930846</v>
+        <v>-3.30035239902412</v>
       </c>
       <c r="O24" t="s">
         <v>40</v>
       </c>
       <c r="P24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q24">
         <v>1803109.05</v>
@@ -2252,19 +2246,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V24" t="s">
+        <v>56</v>
+      </c>
+      <c r="W24" t="s">
         <v>58</v>
-      </c>
-      <c r="W24" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2284,7 +2278,7 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.154424356778323</v>
+        <v>0.862177942579317</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2299,16 +2293,16 @@
         <v>4.54</v>
       </c>
       <c r="K25">
-        <v>0.118140161725067</v>
+        <v>-0.106850316918576</v>
       </c>
       <c r="L25">
-        <v>-0.0755352164934506</v>
+        <v>-0.324022146442134</v>
       </c>
       <c r="M25">
-        <v>0.330901720725514</v>
+        <v>0.0547294284065807</v>
       </c>
       <c r="N25">
-        <v>2.60220620539796</v>
+        <v>-2.35353120966026</v>
       </c>
       <c r="O25" t="s">
         <v>40</v>
@@ -2323,19 +2317,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2355,37 +2349,37 @@
         <v>36</v>
       </c>
       <c r="F26">
-        <v>0.0021902702436259</v>
+        <v>0.0006087021955689</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.609756097560976</v>
+        <v>0.630252100840336</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="K26">
-        <v>-0.0431552094522019</v>
+        <v>-0.0496938775510203</v>
       </c>
       <c r="L26">
-        <v>-0.071126128468932</v>
+        <v>-0.07648312601012359</v>
       </c>
       <c r="M26">
-        <v>-0.0174098587475043</v>
+        <v>-0.0240647327417729</v>
       </c>
       <c r="N26">
-        <v>-4.6403451023873</v>
+        <v>-5.52154195011337</v>
       </c>
       <c r="O26" t="s">
         <v>40</v>
       </c>
       <c r="P26" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Q26">
         <v>1803109.05</v>
@@ -2394,19 +2388,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U26" t="s">
+        <v>55</v>
+      </c>
+      <c r="V26" t="s">
+        <v>56</v>
+      </c>
+      <c r="W26" t="s">
         <v>57</v>
-      </c>
-      <c r="V26" t="s">
-        <v>58</v>
-      </c>
-      <c r="W26" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2426,13 +2420,13 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>0.9915635066612249</v>
+        <v>0.990193742322382</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.820809248554913</v>
+        <v>0.807017543859649</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2441,22 +2435,22 @@
         <v>10.71</v>
       </c>
       <c r="K27">
-        <v>0.034952153110048</v>
+        <v>0.0311916384492609</v>
       </c>
       <c r="L27">
-        <v>0.0100220994239215</v>
+        <v>0.009993232349994999</v>
       </c>
       <c r="M27">
-        <v>0.0548506976207919</v>
+        <v>0.0505379940619626</v>
       </c>
       <c r="N27">
-        <v>0.32635063594816</v>
+        <v>0.291238454241465</v>
       </c>
       <c r="O27" t="s">
         <v>40</v>
       </c>
       <c r="P27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q27">
         <v>1803109.05</v>
@@ -2465,19 +2459,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V27" t="s">
+        <v>56</v>
+      </c>
+      <c r="W27" t="s">
         <v>58</v>
-      </c>
-      <c r="W27" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2497,13 +2491,13 @@
         <v>37</v>
       </c>
       <c r="F28">
-        <v>0.99454376908049</v>
+        <v>0.999339168843234</v>
       </c>
       <c r="G28">
-        <v>0.416184971098266</v>
+        <v>0.445086705202312</v>
       </c>
       <c r="H28">
-        <v>0.144508670520231</v>
+        <v>0.138728323699422</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2515,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>-9.9663862252726E-05</v>
+        <v>-0.0001276648481747</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2527,7 +2521,7 @@
         <v>40</v>
       </c>
       <c r="P28" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q28">
         <v>1803109.05</v>
@@ -2536,19 +2530,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2568,37 +2562,37 @@
         <v>36</v>
       </c>
       <c r="F29">
-        <v>0.104898176240961</v>
+        <v>0.451887743469439</v>
       </c>
       <c r="G29">
         <v>0.0057803468208092</v>
       </c>
       <c r="H29">
-        <v>0.682080924855491</v>
+        <v>0.699421965317919</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>105</v>
+        <v>103.6</v>
       </c>
       <c r="K29">
-        <v>2.24692412850308</v>
+        <v>0.0166704701049751</v>
       </c>
       <c r="L29">
-        <v>-0.574367096345432</v>
+        <v>-2.12787831159718</v>
       </c>
       <c r="M29">
-        <v>4.58024177051925</v>
+        <v>2.8817545399556</v>
       </c>
       <c r="N29">
-        <v>2.1399277414315</v>
+        <v>0.0160911873600146</v>
       </c>
       <c r="O29" t="s">
         <v>40</v>
       </c>
       <c r="P29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q29">
         <v>1803109.05</v>
@@ -2607,19 +2601,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2639,13 +2633,13 @@
         <v>37</v>
       </c>
       <c r="F30">
-        <v>0.993921709741139</v>
+        <v>0.99882679250662</v>
       </c>
       <c r="G30">
-        <v>0.786585365853659</v>
+        <v>0.7939393939393939</v>
       </c>
       <c r="H30">
-        <v>0.274390243902439</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="I30">
         <v>11</v>
@@ -2669,7 +2663,7 @@
         <v>40</v>
       </c>
       <c r="P30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q30">
         <v>1803109.05</v>
@@ -2678,19 +2672,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2710,19 +2704,19 @@
         <v>37</v>
       </c>
       <c r="F31">
-        <v>0.560999894397442</v>
+        <v>0.909691111975319</v>
       </c>
       <c r="G31">
-        <v>0.460122699386503</v>
+        <v>0.479768786127168</v>
       </c>
       <c r="H31">
-        <v>0.0797546012269939</v>
+        <v>0.07514450867052019</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2740,7 +2734,7 @@
         <v>40</v>
       </c>
       <c r="P31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q31">
         <v>1803109.05</v>
@@ -2749,19 +2743,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2778,40 +2772,40 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F32">
-        <v>0.346249090919989</v>
+        <v>0.524094568029817</v>
       </c>
       <c r="G32">
-        <v>0.0368098159509202</v>
+        <v>0.0346820809248555</v>
       </c>
       <c r="H32">
-        <v>0.803680981595092</v>
+        <v>0.786127167630058</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0.095</v>
+        <v>0.094</v>
       </c>
       <c r="K32">
-        <v>0.0004282790895383</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>-0.0021580283792497</v>
+        <v>-0.0026396199955276</v>
       </c>
       <c r="M32">
-        <v>0.0027924802916859</v>
+        <v>0.0014526689589698</v>
       </c>
       <c r="N32">
-        <v>0.450820094250898</v>
+        <v>0</v>
       </c>
       <c r="O32" t="s">
         <v>40</v>
       </c>
       <c r="P32" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Q32">
         <v>1803109.05</v>
@@ -2820,19 +2814,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2852,31 +2846,31 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.651880591594732</v>
+        <v>0.196977857026569</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.556213017751479</v>
+        <v>0.541176470588235</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.5</v>
+        <v>7.52</v>
       </c>
       <c r="K33">
-        <v>0.0044501979896436</v>
+        <v>-0.0064367558053425</v>
       </c>
       <c r="L33">
-        <v>-0.007983953166649099</v>
+        <v>-0.0170140184644783</v>
       </c>
       <c r="M33">
-        <v>0.0182756473479427</v>
+        <v>0.0066482670309612</v>
       </c>
       <c r="N33">
-        <v>0.0593359731952483</v>
+        <v>-0.0855951569859387</v>
       </c>
       <c r="O33" t="s">
         <v>40</v>
@@ -2891,16 +2885,16 @@
         <v>5509886.23</v>
       </c>
       <c r="S33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2917,16 +2911,16 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F34">
-        <v>0.54182668380247</v>
+        <v>0.73574808367205</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.718390804597701</v>
+        <v>0.71264367816092</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2935,22 +2929,22 @@
         <v>0.1045</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>-0.0008431276943271</v>
       </c>
       <c r="L34">
-        <v>-0.0028462652185272</v>
+        <v>-0.0033523876670828</v>
       </c>
       <c r="M34">
-        <v>0.002005401510433</v>
+        <v>0.0011614485308937</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>-0.806820760121705</v>
       </c>
       <c r="O34" t="s">
         <v>40</v>
       </c>
       <c r="P34" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Q34">
         <v>1803109.05</v>
@@ -2959,19 +2953,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V34" t="s">
+        <v>56</v>
+      </c>
+      <c r="W34" t="s">
         <v>58</v>
-      </c>
-      <c r="W34" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2985,43 +2979,43 @@
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F35">
-        <v>0.5015718074071021</v>
+        <v>0.845038744514568</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.485549132947977</v>
+        <v>0.456647398843931</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.217</v>
+        <v>0.216</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>-0.0022523124357656</v>
       </c>
       <c r="L35">
-        <v>-0.0039012898336488</v>
+        <v>-0.0049886994270965</v>
       </c>
       <c r="M35">
-        <v>0.0038311807763441</v>
+        <v>0.0008202039469155</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>-1.04273723878041</v>
       </c>
       <c r="O35" t="s">
         <v>40</v>
       </c>
       <c r="P35" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Q35">
         <v>1803109.05</v>
@@ -3030,19 +3024,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V35" t="s">
+        <v>56</v>
+      </c>
+      <c r="W35" t="s">
         <v>58</v>
-      </c>
-      <c r="W35" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3062,37 +3056,37 @@
         <v>36</v>
       </c>
       <c r="F36">
-        <v>0.98345356381323</v>
+        <v>0.9978318940968049</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.323699421965318</v>
+        <v>0.300578034682081</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
       <c r="K36">
-        <v>-0.0004155338505265</v>
+        <v>-0.000513231850117</v>
       </c>
       <c r="L36">
-        <v>-0.0007209466497632</v>
+        <v>-0.000776417497879</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>-0.0002174107142857</v>
       </c>
       <c r="N36">
-        <v>-2.07766925263256</v>
+        <v>-2.85128805620609</v>
       </c>
       <c r="O36" t="s">
         <v>40</v>
       </c>
       <c r="P36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q36">
         <v>1803109.05</v>
@@ -3101,19 +3095,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W36" t="s">
         <v>58</v>
-      </c>
-      <c r="W36" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3133,37 +3127,37 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>0.876278892599666</v>
+        <v>0.945959249021642</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.907514450867052</v>
+        <v>0.913294797687861</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>4.75</v>
+        <v>4.43</v>
       </c>
       <c r="K37">
-        <v>-0.0779413969115461</v>
+        <v>-0.0894124995838466</v>
       </c>
       <c r="L37">
-        <v>-0.187227899922332</v>
+        <v>-0.186322454039206</v>
       </c>
       <c r="M37">
-        <v>0.0318032680436992</v>
+        <v>0.0021919737459278</v>
       </c>
       <c r="N37">
-        <v>-1.64087151392729</v>
+        <v>-2.01834084839383</v>
       </c>
       <c r="O37" t="s">
         <v>40</v>
       </c>
       <c r="P37" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q37">
         <v>1803109.05</v>
@@ -3172,19 +3166,19 @@
         <v>5509886.23</v>
       </c>
       <c r="S37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
